--- a/心經_多語_02.xlsx
+++ b/心經_多語_02.xlsx
@@ -5,14 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\演講2023_重新開始\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ryLecture2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B8C15B-A1C9-4C17-821F-2DB8F79C66EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02592765-ECF7-4CAB-AEC2-EA89D28C06BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25875" yWindow="1155" windowWidth="22815" windowHeight="14880" xr2:uid="{68A1F155-0D87-4223-85F3-AE6E8B497A34}"/>
-    <workbookView xWindow="1560" yWindow="0" windowWidth="22815" windowHeight="14880" xr2:uid="{07016E9D-51EF-4350-BF53-32C1B7548015}"/>
-    <workbookView xWindow="1950" yWindow="0" windowWidth="22815" windowHeight="14880" xr2:uid="{FBCD11BF-AF96-4F78-946B-761426CCD2FC}"/>
+    <workbookView xWindow="2940" yWindow="11355" windowWidth="22815" windowHeight="13620" xr2:uid="{FBCD11BF-AF96-4F78-946B-761426CCD2FC}"/>
   </bookViews>
   <sheets>
     <sheet name="梵日台華英" sheetId="13" r:id="rId1"/>
@@ -5899,9 +5897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2346147-A588-47D4-9372-A96EE00837FC}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-    <sheetView tabSelected="1" workbookViewId="1"/>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="2">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
